--- a/September'21/22.09.2021/Daily Sales Info Sep'21.xlsx
+++ b/September'21/22.09.2021/Daily Sales Info Sep'21.xlsx
@@ -141,7 +141,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Windows User:</t>
         </r>
@@ -150,7 +150,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Desh Mobile Sim Sale 25</t>
@@ -175,7 +175,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Windows User:</t>
         </r>
@@ -184,7 +184,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Jilani Sim 50
@@ -1448,7 +1448,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1557,19 +1557,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="11">
@@ -2324,6 +2311,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2416,9 +2406,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14827,80 +14814,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="114"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="115"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <v>430730</v>
@@ -14930,19 +14917,19 @@
         <v>50</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="115"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>122598</v>
@@ -14960,13 +14947,13 @@
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -16109,11 +16096,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>186832</v>
@@ -16184,11 +16171,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="106"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>366496</v>
@@ -16225,14 +16212,14 @@
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="M29" s="106"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="108"/>
+      <c r="M29" s="107"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="108"/>
+      <c r="Q29" s="108"/>
+      <c r="R29" s="108"/>
+      <c r="S29" s="108"/>
+      <c r="T29" s="109"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -16482,80 +16469,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="114"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="115"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'9'!D29</f>
@@ -16594,19 +16581,19 @@
         <v>50</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="115"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>30777</v>
@@ -16620,13 +16607,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -17729,11 +17716,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>157624</v>
@@ -17804,11 +17791,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="106"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>143577</v>
@@ -17845,14 +17832,14 @@
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="M29" s="106"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="108"/>
+      <c r="M29" s="107"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="108"/>
+      <c r="Q29" s="108"/>
+      <c r="R29" s="108"/>
+      <c r="S29" s="108"/>
+      <c r="T29" s="109"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -18106,80 +18093,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="114"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="115"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'10'!D29</f>
@@ -18218,19 +18205,19 @@
         <v>50</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="115"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>236866</v>
@@ -18244,13 +18231,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -19439,11 +19426,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>138606</v>
@@ -19514,11 +19501,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="106"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>241837</v>
@@ -19555,14 +19542,14 @@
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="M29" s="106"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="108"/>
+      <c r="M29" s="107"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="108"/>
+      <c r="Q29" s="108"/>
+      <c r="R29" s="108"/>
+      <c r="S29" s="108"/>
+      <c r="T29" s="109"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -19841,80 +19828,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
     </row>
     <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="114"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="115" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="115"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'11'!D29</f>
@@ -19953,21 +19940,21 @@
         <v>50</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="117"/>
-      <c r="P4" s="117"/>
-      <c r="Q4" s="117"/>
-      <c r="R4" s="117"/>
-      <c r="S4" s="117"/>
-      <c r="T4" s="117"/>
-      <c r="U4" s="117"/>
-      <c r="V4" s="118"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="118"/>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="118"/>
+      <c r="T4" s="118"/>
+      <c r="U4" s="118"/>
+      <c r="V4" s="119"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="115"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>524156</v>
@@ -19989,15 +19976,15 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
-      <c r="U5" s="115"/>
-      <c r="V5" s="115"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
+      <c r="U5" s="116"/>
+      <c r="V5" s="116"/>
     </row>
     <row r="6" spans="1:22" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -21315,11 +21302,11 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>190600</v>
@@ -21398,11 +21385,11 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="106"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>575393</v>
@@ -21439,16 +21426,16 @@
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="M29" s="119"/>
-      <c r="N29" s="119"/>
-      <c r="O29" s="119"/>
-      <c r="P29" s="119"/>
-      <c r="Q29" s="119"/>
-      <c r="R29" s="119"/>
-      <c r="S29" s="119"/>
-      <c r="T29" s="119"/>
-      <c r="U29" s="119"/>
-      <c r="V29" s="119"/>
+      <c r="M29" s="120"/>
+      <c r="N29" s="120"/>
+      <c r="O29" s="120"/>
+      <c r="P29" s="120"/>
+      <c r="Q29" s="120"/>
+      <c r="R29" s="120"/>
+      <c r="S29" s="120"/>
+      <c r="T29" s="120"/>
+      <c r="U29" s="120"/>
+      <c r="V29" s="120"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -21744,80 +21731,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
     </row>
     <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="114"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="115"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'12'!D29</f>
@@ -21856,21 +21843,21 @@
         <v>50</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="117"/>
-      <c r="P4" s="117"/>
-      <c r="Q4" s="117"/>
-      <c r="R4" s="117"/>
-      <c r="S4" s="117"/>
-      <c r="T4" s="117"/>
-      <c r="U4" s="117"/>
-      <c r="V4" s="118"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="118"/>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="118"/>
+      <c r="T4" s="118"/>
+      <c r="U4" s="118"/>
+      <c r="V4" s="119"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="115"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>207793</v>
@@ -21886,15 +21873,15 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="117"/>
-      <c r="P5" s="117"/>
-      <c r="Q5" s="117"/>
-      <c r="R5" s="117"/>
-      <c r="S5" s="117"/>
-      <c r="T5" s="117"/>
-      <c r="U5" s="117"/>
-      <c r="V5" s="118"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="118"/>
+      <c r="P5" s="118"/>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="118"/>
+      <c r="S5" s="118"/>
+      <c r="T5" s="118"/>
+      <c r="U5" s="118"/>
+      <c r="V5" s="119"/>
     </row>
     <row r="6" spans="1:22" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -23230,11 +23217,11 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>218159</v>
@@ -23313,11 +23300,11 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="106"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>565027</v>
@@ -23354,16 +23341,16 @@
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="M29" s="119"/>
-      <c r="N29" s="119"/>
-      <c r="O29" s="119"/>
-      <c r="P29" s="119"/>
-      <c r="Q29" s="119"/>
-      <c r="R29" s="119"/>
-      <c r="S29" s="119"/>
-      <c r="T29" s="119"/>
-      <c r="U29" s="119"/>
-      <c r="V29" s="119"/>
+      <c r="M29" s="120"/>
+      <c r="N29" s="120"/>
+      <c r="O29" s="120"/>
+      <c r="P29" s="120"/>
+      <c r="Q29" s="120"/>
+      <c r="R29" s="120"/>
+      <c r="S29" s="120"/>
+      <c r="T29" s="120"/>
+      <c r="U29" s="120"/>
+      <c r="V29" s="120"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -23644,80 +23631,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="114"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="115"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'13'!D29</f>
@@ -23756,19 +23743,19 @@
         <v>50</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="115"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>207792</v>
@@ -23782,13 +23769,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -24939,11 +24926,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>203969</v>
@@ -25014,11 +25001,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="106"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>568850</v>
@@ -25055,14 +25042,14 @@
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="M29" s="106"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="108"/>
+      <c r="M29" s="107"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="108"/>
+      <c r="Q29" s="108"/>
+      <c r="R29" s="108"/>
+      <c r="S29" s="108"/>
+      <c r="T29" s="109"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -25376,80 +25363,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
     </row>
     <row r="3" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="114"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="115"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'14'!D29</f>
@@ -25488,19 +25475,19 @@
         <v>50</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="115"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>103896</v>
@@ -25514,13 +25501,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
     </row>
     <row r="6" spans="1:21" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -26710,11 +26697,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>227422</v>
@@ -26785,11 +26772,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="106"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>445324</v>
@@ -26826,14 +26813,14 @@
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="M29" s="106"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="108"/>
+      <c r="M29" s="107"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="108"/>
+      <c r="Q29" s="108"/>
+      <c r="R29" s="108"/>
+      <c r="S29" s="108"/>
+      <c r="T29" s="109"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -27101,80 +27088,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
     </row>
     <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="114"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="115"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'15'!D29</f>
@@ -27213,21 +27200,21 @@
         <v>50</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="117"/>
-      <c r="P4" s="117"/>
-      <c r="Q4" s="117"/>
-      <c r="R4" s="117"/>
-      <c r="S4" s="117"/>
-      <c r="T4" s="117"/>
-      <c r="U4" s="117"/>
-      <c r="V4" s="118"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="118"/>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="118"/>
+      <c r="T4" s="118"/>
+      <c r="U4" s="118"/>
+      <c r="V4" s="119"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="115"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>311688</v>
@@ -27241,15 +27228,15 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="117"/>
-      <c r="P5" s="117"/>
-      <c r="Q5" s="117"/>
-      <c r="R5" s="117"/>
-      <c r="S5" s="117"/>
-      <c r="T5" s="117"/>
-      <c r="U5" s="117"/>
-      <c r="V5" s="118"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="118"/>
+      <c r="P5" s="118"/>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="118"/>
+      <c r="S5" s="118"/>
+      <c r="T5" s="118"/>
+      <c r="U5" s="118"/>
+      <c r="V5" s="119"/>
     </row>
     <row r="6" spans="1:22" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -28589,11 +28576,11 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>352934</v>
@@ -28672,11 +28659,11 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="106"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>404078</v>
@@ -28713,16 +28700,16 @@
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="M29" s="119"/>
-      <c r="N29" s="119"/>
-      <c r="O29" s="119"/>
-      <c r="P29" s="119"/>
-      <c r="Q29" s="119"/>
-      <c r="R29" s="119"/>
-      <c r="S29" s="119"/>
-      <c r="T29" s="119"/>
-      <c r="U29" s="119"/>
-      <c r="V29" s="119"/>
+      <c r="M29" s="120"/>
+      <c r="N29" s="120"/>
+      <c r="O29" s="120"/>
+      <c r="P29" s="120"/>
+      <c r="Q29" s="120"/>
+      <c r="R29" s="120"/>
+      <c r="S29" s="120"/>
+      <c r="T29" s="120"/>
+      <c r="U29" s="120"/>
+      <c r="V29" s="120"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -29010,80 +28997,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="114"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="115"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'16'!D29</f>
@@ -29122,19 +29109,19 @@
         <v>50</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="115"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -29146,13 +29133,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -30187,11 +30174,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>4112</v>
@@ -30262,11 +30249,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="106"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>399966</v>
@@ -30303,14 +30290,14 @@
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="M29" s="106"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="108"/>
+      <c r="M29" s="107"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="108"/>
+      <c r="Q29" s="108"/>
+      <c r="R29" s="108"/>
+      <c r="S29" s="108"/>
+      <c r="T29" s="109"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -30564,80 +30551,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
     </row>
     <row r="3" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="114"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="115"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'17'!D29</f>
@@ -30676,19 +30663,19 @@
         <v>50</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="115"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -30700,13 +30687,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
     </row>
     <row r="6" spans="1:21" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -31864,11 +31851,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="120" t="s">
+      <c r="A28" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="120"/>
-      <c r="C28" s="120"/>
+      <c r="B28" s="121"/>
+      <c r="C28" s="121"/>
       <c r="D28" s="60">
         <f t="shared" ref="D28:T28" si="6">SUM(D7:D27)</f>
         <v>223014</v>
@@ -31939,11 +31926,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="114" t="s">
+      <c r="A29" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="114"/>
-      <c r="C29" s="114"/>
+      <c r="B29" s="115"/>
+      <c r="C29" s="115"/>
       <c r="D29" s="82">
         <f t="shared" ref="D29:L29" si="7">D4+D5-D28</f>
         <v>176952</v>
@@ -31980,14 +31967,14 @@
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="M29" s="119"/>
-      <c r="N29" s="119"/>
-      <c r="O29" s="119"/>
-      <c r="P29" s="119"/>
-      <c r="Q29" s="119"/>
-      <c r="R29" s="119"/>
-      <c r="S29" s="119"/>
-      <c r="T29" s="119"/>
+      <c r="M29" s="120"/>
+      <c r="N29" s="120"/>
+      <c r="O29" s="120"/>
+      <c r="P29" s="120"/>
+      <c r="Q29" s="120"/>
+      <c r="R29" s="120"/>
+      <c r="S29" s="120"/>
+      <c r="T29" s="120"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -32247,80 +32234,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
     </row>
     <row r="3" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="121"/>
-      <c r="P3" s="121"/>
-      <c r="Q3" s="121"/>
-      <c r="R3" s="121"/>
-      <c r="S3" s="121"/>
-      <c r="T3" s="121"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="122"/>
+      <c r="O3" s="122"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="122"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="122"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="115"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'18'!D29</f>
@@ -32359,21 +32346,21 @@
         <v>50</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
-      <c r="U4" s="115"/>
-      <c r="V4" s="115"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
+      <c r="U4" s="116"/>
+      <c r="V4" s="116"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="115"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>623376</v>
@@ -32387,15 +32374,15 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
-      <c r="U5" s="115"/>
-      <c r="V5" s="115"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
+      <c r="U5" s="116"/>
+      <c r="V5" s="116"/>
     </row>
     <row r="6" spans="1:24" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -33742,11 +33729,11 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>335748</v>
@@ -33825,11 +33812,11 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="106"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>464580</v>
@@ -33866,16 +33853,16 @@
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="M29" s="119"/>
-      <c r="N29" s="119"/>
-      <c r="O29" s="119"/>
-      <c r="P29" s="119"/>
-      <c r="Q29" s="119"/>
-      <c r="R29" s="119"/>
-      <c r="S29" s="119"/>
-      <c r="T29" s="119"/>
-      <c r="U29" s="119"/>
-      <c r="V29" s="119"/>
+      <c r="M29" s="120"/>
+      <c r="N29" s="120"/>
+      <c r="O29" s="120"/>
+      <c r="P29" s="120"/>
+      <c r="Q29" s="120"/>
+      <c r="R29" s="120"/>
+      <c r="S29" s="120"/>
+      <c r="T29" s="120"/>
+      <c r="U29" s="120"/>
+      <c r="V29" s="120"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -34150,80 +34137,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
     </row>
     <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="114"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="115"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'1'!D29</f>
@@ -34262,19 +34249,19 @@
         <v>50</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="115"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>311688</v>
@@ -34288,13 +34275,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
     </row>
     <row r="6" spans="1:22" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -35453,11 +35440,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>224626</v>
@@ -35528,11 +35515,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="106"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>453558</v>
@@ -35569,14 +35556,14 @@
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="M29" s="106"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="108"/>
+      <c r="M29" s="107"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="108"/>
+      <c r="Q29" s="108"/>
+      <c r="R29" s="108"/>
+      <c r="S29" s="108"/>
+      <c r="T29" s="109"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -35831,80 +35818,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
     </row>
     <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="114"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="115"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'19'!D29</f>
@@ -35943,21 +35930,21 @@
         <v>50</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="117"/>
-      <c r="P4" s="117"/>
-      <c r="Q4" s="117"/>
-      <c r="R4" s="117"/>
-      <c r="S4" s="117"/>
-      <c r="T4" s="117"/>
-      <c r="U4" s="117"/>
-      <c r="V4" s="118"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="118"/>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="118"/>
+      <c r="T4" s="118"/>
+      <c r="U4" s="118"/>
+      <c r="V4" s="119"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="115"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>316365</v>
@@ -35971,15 +35958,15 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="117"/>
-      <c r="P5" s="117"/>
-      <c r="Q5" s="117"/>
-      <c r="R5" s="117"/>
-      <c r="S5" s="117"/>
-      <c r="T5" s="117"/>
-      <c r="U5" s="117"/>
-      <c r="V5" s="118"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="118"/>
+      <c r="P5" s="118"/>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="118"/>
+      <c r="S5" s="118"/>
+      <c r="T5" s="118"/>
+      <c r="U5" s="118"/>
+      <c r="V5" s="119"/>
     </row>
     <row r="6" spans="1:22" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -37027,7 +37014,7 @@
       <c r="B22" s="20">
         <v>1908446149</v>
       </c>
-      <c r="C22" s="131">
+      <c r="C22" s="100">
         <v>51</v>
       </c>
       <c r="D22" s="29">
@@ -37399,11 +37386,11 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>375225</v>
@@ -37482,11 +37469,11 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="106"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>405720</v>
@@ -37527,15 +37514,15 @@
         <f>R29-U29</f>
         <v>0</v>
       </c>
-      <c r="N29" s="122"/>
-      <c r="O29" s="123"/>
-      <c r="P29" s="123"/>
-      <c r="Q29" s="123"/>
-      <c r="R29" s="123"/>
-      <c r="S29" s="123"/>
-      <c r="T29" s="123"/>
-      <c r="U29" s="123"/>
-      <c r="V29" s="124"/>
+      <c r="N29" s="123"/>
+      <c r="O29" s="124"/>
+      <c r="P29" s="124"/>
+      <c r="Q29" s="124"/>
+      <c r="R29" s="124"/>
+      <c r="S29" s="124"/>
+      <c r="T29" s="124"/>
+      <c r="U29" s="124"/>
+      <c r="V29" s="125"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -37812,80 +37799,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
     </row>
     <row r="3" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="114"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="115"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'20'!D29</f>
@@ -37924,21 +37911,21 @@
         <v>45</v>
       </c>
       <c r="M4" s="95"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
       <c r="U4" s="87"/>
       <c r="V4" s="87"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="115"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>479792</v>
@@ -37954,13 +37941,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="96"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
       <c r="U5" s="87"/>
       <c r="V5" s="87"/>
     </row>
@@ -39206,11 +39193,11 @@
       <c r="V27" s="91"/>
     </row>
     <row r="28" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>164000</v>
@@ -39283,11 +39270,11 @@
       <c r="V28" s="92"/>
     </row>
     <row r="29" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="106"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>721512</v>
@@ -39325,13 +39312,13 @@
         <v>45</v>
       </c>
       <c r="M29" s="93"/>
-      <c r="N29" s="125"/>
-      <c r="O29" s="126"/>
-      <c r="P29" s="126"/>
-      <c r="Q29" s="126"/>
-      <c r="R29" s="126"/>
-      <c r="S29" s="126"/>
-      <c r="T29" s="127"/>
+      <c r="N29" s="126"/>
+      <c r="O29" s="127"/>
+      <c r="P29" s="127"/>
+      <c r="Q29" s="127"/>
+      <c r="R29" s="127"/>
+      <c r="S29" s="127"/>
+      <c r="T29" s="128"/>
       <c r="U29" s="94"/>
       <c r="V29" s="94"/>
     </row>
@@ -39594,7 +39581,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39610,80 +39597,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="114"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="115"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'21'!D29</f>
@@ -39722,19 +39709,19 @@
         <v>45</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="115"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -39746,13 +39733,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -40939,11 +40926,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>162249</v>
@@ -41014,11 +41001,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="106"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>559263</v>
@@ -41055,14 +41042,14 @@
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
-      <c r="M29" s="106"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="108"/>
+      <c r="M29" s="107"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="108"/>
+      <c r="Q29" s="108"/>
+      <c r="R29" s="108"/>
+      <c r="S29" s="108"/>
+      <c r="T29" s="109"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -41317,80 +41304,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="114"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="115"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'22'!D29</f>
@@ -41429,19 +41416,19 @@
         <v>45</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="115"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -41453,13 +41440,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -42490,11 +42477,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>0</v>
@@ -42565,11 +42552,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="106"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>559263</v>
@@ -42606,14 +42593,14 @@
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
-      <c r="M29" s="106"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="108"/>
+      <c r="M29" s="107"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="108"/>
+      <c r="Q29" s="108"/>
+      <c r="R29" s="108"/>
+      <c r="S29" s="108"/>
+      <c r="T29" s="109"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -42867,80 +42854,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="114"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="115"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'23'!D29</f>
@@ -42979,19 +42966,19 @@
         <v>45</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="115"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -43003,13 +42990,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -44040,11 +44027,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>0</v>
@@ -44115,11 +44102,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="106"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>559263</v>
@@ -44156,14 +44143,14 @@
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
-      <c r="M29" s="106"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="108"/>
+      <c r="M29" s="107"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="108"/>
+      <c r="Q29" s="108"/>
+      <c r="R29" s="108"/>
+      <c r="S29" s="108"/>
+      <c r="T29" s="109"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -44417,80 +44404,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="114"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="115"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'24'!D29</f>
@@ -44529,19 +44516,19 @@
         <v>45</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="115"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -44553,13 +44540,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -45590,11 +45577,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>0</v>
@@ -45665,11 +45652,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="106"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>559263</v>
@@ -45706,14 +45693,14 @@
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
-      <c r="M29" s="106"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="108"/>
+      <c r="M29" s="107"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="108"/>
+      <c r="Q29" s="108"/>
+      <c r="R29" s="108"/>
+      <c r="S29" s="108"/>
+      <c r="T29" s="109"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -45967,80 +45954,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="114"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="115"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'25'!D29</f>
@@ -46079,19 +46066,19 @@
         <v>45</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="115"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -46103,13 +46090,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -47140,11 +47127,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>0</v>
@@ -47215,11 +47202,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="106"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>559263</v>
@@ -47256,14 +47243,14 @@
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
-      <c r="M29" s="106"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="108"/>
+      <c r="M29" s="107"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="108"/>
+      <c r="Q29" s="108"/>
+      <c r="R29" s="108"/>
+      <c r="S29" s="108"/>
+      <c r="T29" s="109"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -47517,80 +47504,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="114"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="115"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'26'!D29</f>
@@ -47629,19 +47616,19 @@
         <v>45</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="115"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -47653,13 +47640,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -48690,11 +48677,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>0</v>
@@ -48765,11 +48752,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="106"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>559263</v>
@@ -48806,14 +48793,14 @@
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
-      <c r="M29" s="106"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="108"/>
+      <c r="M29" s="107"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="108"/>
+      <c r="Q29" s="108"/>
+      <c r="R29" s="108"/>
+      <c r="S29" s="108"/>
+      <c r="T29" s="109"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -49067,80 +49054,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="114"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="115"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'27'!D29</f>
@@ -49179,19 +49166,19 @@
         <v>45</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="115"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -49203,13 +49190,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -50240,11 +50227,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>0</v>
@@ -50315,11 +50302,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="106"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>559263</v>
@@ -50356,14 +50343,14 @@
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
-      <c r="M29" s="106"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="108"/>
+      <c r="M29" s="107"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="108"/>
+      <c r="Q29" s="108"/>
+      <c r="R29" s="108"/>
+      <c r="S29" s="108"/>
+      <c r="T29" s="109"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -50617,80 +50604,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="114"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="115"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'28'!D29</f>
@@ -50729,19 +50716,19 @@
         <v>45</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="115"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -50753,13 +50740,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -51790,11 +51777,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>0</v>
@@ -51865,11 +51852,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="106"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>559263</v>
@@ -51906,14 +51893,14 @@
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
-      <c r="M29" s="106"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="108"/>
+      <c r="M29" s="107"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="108"/>
+      <c r="Q29" s="108"/>
+      <c r="R29" s="108"/>
+      <c r="S29" s="108"/>
+      <c r="T29" s="109"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -52167,80 +52154,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="114"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="115"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'2'!D29</f>
@@ -52279,19 +52266,19 @@
         <v>50</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="115"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -52303,13 +52290,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -53340,11 +53327,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>0</v>
@@ -53415,11 +53402,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="106"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>453558</v>
@@ -53456,14 +53443,14 @@
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="M29" s="106"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="108"/>
+      <c r="M29" s="107"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="108"/>
+      <c r="Q29" s="108"/>
+      <c r="R29" s="108"/>
+      <c r="S29" s="108"/>
+      <c r="T29" s="109"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -53717,80 +53704,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="114"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="115"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'29'!D29</f>
@@ -53829,19 +53816,19 @@
         <v>45</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="115"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -53853,13 +53840,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -54890,11 +54877,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>0</v>
@@ -54965,11 +54952,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="106"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>559263</v>
@@ -55006,14 +54993,14 @@
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
-      <c r="M29" s="106"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="108"/>
+      <c r="M29" s="107"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="108"/>
+      <c r="Q29" s="108"/>
+      <c r="R29" s="108"/>
+      <c r="S29" s="108"/>
+      <c r="T29" s="109"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -55267,80 +55254,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="114"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="115"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'30'!D29</f>
@@ -55379,19 +55366,19 @@
         <v>45</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="115"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -55403,13 +55390,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -56440,11 +56427,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>0</v>
@@ -56515,11 +56502,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="106"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>559263</v>
@@ -56556,14 +56543,14 @@
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
-      <c r="M29" s="106"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="108"/>
+      <c r="M29" s="107"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="108"/>
+      <c r="Q29" s="108"/>
+      <c r="R29" s="108"/>
+      <c r="S29" s="108"/>
+      <c r="T29" s="109"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -56817,80 +56804,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="114"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="115"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'1'!D4</f>
@@ -56929,19 +56916,19 @@
         <v>50</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="115"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <f>'1'!D5+'2'!D5+'3'!D5+'4'!D5+'5'!D5+'6'!D5+'7'!D5+'8'!D5+'9'!D5+'10'!D5+'11'!D5+'12'!D5+'13'!D5+'14'!D5+'15'!D5+'16'!D5+'17'!D5+'18'!D5+'19'!D5+'20'!D5+'21'!D5+'22'!D5+'23'!D5+'24'!D5+'25'!D5+'26'!D5+'27'!D5+'28'!D5+'29'!D5+'30'!D5+'31'!D5</f>
@@ -56980,13 +56967,13 @@
         <v>0</v>
       </c>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -58647,11 +58634,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>4420151</v>
@@ -58722,11 +58709,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="106"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>559263</v>
@@ -58763,14 +58750,14 @@
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
-      <c r="M29" s="106"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="108"/>
+      <c r="M29" s="107"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="108"/>
+      <c r="Q29" s="108"/>
+      <c r="R29" s="108"/>
+      <c r="S29" s="108"/>
+      <c r="T29" s="109"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -59015,12 +59002,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="129" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="130"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="131"/>
       <c r="E1" s="66"/>
       <c r="F1" s="66"/>
     </row>
@@ -59429,80 +59416,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
     </row>
     <row r="3" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="114"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="115"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'3'!D29</f>
@@ -59541,19 +59528,19 @@
         <v>50</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="115"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -59565,13 +59552,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
     </row>
     <row r="6" spans="1:21" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -60765,11 +60752,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>197228</v>
@@ -60840,11 +60827,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="106"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>256330</v>
@@ -60881,14 +60868,14 @@
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="M29" s="106"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="108"/>
+      <c r="M29" s="107"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="108"/>
+      <c r="Q29" s="108"/>
+      <c r="R29" s="108"/>
+      <c r="S29" s="108"/>
+      <c r="T29" s="109"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -61170,80 +61157,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="114"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="115"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'4'!D29</f>
@@ -61285,19 +61272,19 @@
         <f>'4'!M29</f>
         <v>0</v>
       </c>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="115"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>519480</v>
@@ -61311,13 +61298,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -62494,11 +62481,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>182217</v>
@@ -62569,11 +62556,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="106"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>593593</v>
@@ -62610,14 +62597,14 @@
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="M29" s="106"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="108"/>
+      <c r="M29" s="107"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="108"/>
+      <c r="Q29" s="108"/>
+      <c r="R29" s="108"/>
+      <c r="S29" s="108"/>
+      <c r="T29" s="109"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -62887,80 +62874,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="114"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="115"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'5'!D29</f>
@@ -62999,19 +62986,19 @@
         <v>50</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="115"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>275741</v>
@@ -63027,13 +63014,13 @@
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -64240,11 +64227,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>219581</v>
@@ -64315,11 +64302,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="106"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>649753</v>
@@ -64356,14 +64343,14 @@
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="M29" s="106"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="108"/>
+      <c r="M29" s="107"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="108"/>
+      <c r="Q29" s="108"/>
+      <c r="R29" s="108"/>
+      <c r="S29" s="108"/>
+      <c r="T29" s="109"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -64634,80 +64621,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="114"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="115"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'6'!D29</f>
@@ -64746,19 +64733,19 @@
         <v>50</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="115"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>172780</v>
@@ -64772,13 +64759,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -65973,11 +65960,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>180020</v>
@@ -66048,11 +66035,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="106"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>642513</v>
@@ -66089,14 +66076,14 @@
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="M29" s="106"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="108"/>
+      <c r="M29" s="107"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="108"/>
+      <c r="Q29" s="108"/>
+      <c r="R29" s="108"/>
+      <c r="S29" s="108"/>
+      <c r="T29" s="109"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -66364,80 +66351,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="114"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="115"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'7'!D29</f>
@@ -66476,19 +66463,19 @@
         <v>50</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="115"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>103896</v>
@@ -66506,13 +66493,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -67703,11 +67690,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>205573</v>
@@ -67778,11 +67765,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="106"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>540836</v>
@@ -67819,14 +67806,14 @@
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="M29" s="106"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="108"/>
+      <c r="M29" s="107"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="108"/>
+      <c r="Q29" s="108"/>
+      <c r="R29" s="108"/>
+      <c r="S29" s="108"/>
+      <c r="T29" s="109"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -68098,80 +68085,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="114"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="115"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'8'!D29</f>
@@ -68210,19 +68197,19 @@
         <v>50</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="115"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -68234,13 +68221,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -69444,11 +69431,11 @@
       </c>
     </row>
     <row r="28" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>270412</v>
@@ -69519,11 +69506,11 @@
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="106"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>270424</v>
@@ -69560,14 +69547,14 @@
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="M29" s="106"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="108"/>
+      <c r="M29" s="107"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="108"/>
+      <c r="Q29" s="108"/>
+      <c r="R29" s="108"/>
+      <c r="S29" s="108"/>
+      <c r="T29" s="109"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
